--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-GR-groen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-GR-groen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7D6486DA-00DB-4FB7-B4DE-668713EFF854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D566FC28-8A7C-48BF-B05F-0E6F93825857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{5F087A04-E5FD-40DF-8C1C-4776C3753D59}"/>
   </bookViews>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-GR-groen'!$A$1:$BS$189</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2683,13 +2696,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B337B6-8EF6-427F-9044-65772CF2C022}">
   <dimension ref="A1:FA375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW172" workbookViewId="0">
-      <selection activeCell="BP221" sqref="BP221"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="BM196" sqref="BM196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="64" width="0" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="66" max="67" width="8.7265625" customWidth="1"/>
     <col min="68" max="68" width="28.36328125" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="8.7265625" customWidth="1"/>
